--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\william\Desktop\WEB289\WEB289-Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AXampp\htdocs\WEB289\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="30">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -738,7 +738,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 9'!E21</f>
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 10'!E21</f>
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -868,7 +868,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 11'!E21</f>
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -933,7 +933,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 12'!E21</f>
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -998,7 +998,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 13'!E21</f>
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1861,7 +1861,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1938,13 +1938,30 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
+        <v>40968</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
     <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1953,7 +1970,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 7'!E21</f>
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2018,7 +2035,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 8'!E21</f>
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="560" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="560" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="36">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,24 @@
   </si>
   <si>
     <t>work on login and search</t>
+  </si>
+  <si>
+    <t>work on login and seperating views</t>
+  </si>
+  <si>
+    <t>work on login and other assorted stuff</t>
+  </si>
+  <si>
+    <t>work on login and pushing site live to Web</t>
+  </si>
+  <si>
+    <t>work on page navigation markers</t>
+  </si>
+  <si>
+    <t>Finalize login and page structure</t>
+  </si>
+  <si>
+    <t>Fine tune site in preparation for Phase 4 Demo</t>
   </si>
 </sst>
 </file>
@@ -696,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -723,13 +741,64 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
+        <v>40979</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
+        <v>40980</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>40983</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
     <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -738,7 +807,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 9'!E21</f>
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +872,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 10'!E21</f>
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -868,7 +937,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 11'!E21</f>
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -933,7 +1002,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 12'!E21</f>
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -998,7 +1067,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 13'!E21</f>
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1063,7 +1132,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1231,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +1929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1994,7 +2063,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2020,13 +2089,81 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
+        <v>40972</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
+        <v>40973</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>40976</v>
+      </c>
+      <c r="B4" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
+        <v>40977</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
     <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2035,7 +2172,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 8'!E21</f>
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="560" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="560" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="40">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,18 @@
   </si>
   <si>
     <t>Fine tune site in preparation for Phase 4 Demo</t>
+  </si>
+  <si>
+    <t>Work on getting cart active and working</t>
+  </si>
+  <si>
+    <t>Continue working on Sessions and cart</t>
+  </si>
+  <si>
+    <t>Work on cart finally working properly</t>
+  </si>
+  <si>
+    <t>Work on cart and admin views</t>
   </si>
 </sst>
 </file>
@@ -714,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -830,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView view="pageLayout" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -857,13 +869,47 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
+        <v>40993</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
+        <v>40994</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
     <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -872,7 +918,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 10'!E21</f>
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -895,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -922,13 +968,64 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
+        <v>40996</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
+        <v>40997</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>40998</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -937,7 +1034,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 11'!E21</f>
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1002,7 +1099,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 12'!E21</f>
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1067,7 +1164,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 13'!E21</f>
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1132,7 +1229,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1231,7 +1328,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="560" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="560" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="46">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,24 @@
   </si>
   <si>
     <t>Work on cart and admin views</t>
+  </si>
+  <si>
+    <t>Work on product update and cart view</t>
+  </si>
+  <si>
+    <t>work on product update creating two views for admins</t>
+  </si>
+  <si>
+    <t>work on navigation paths and site security</t>
+  </si>
+  <si>
+    <t>work on search feature and repathing navigation</t>
+  </si>
+  <si>
+    <t>Work on adding views for admin, search feature</t>
+  </si>
+  <si>
+    <t>Continue working on fine tuning site</t>
   </si>
 </sst>
 </file>
@@ -941,7 +959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1058,7 +1076,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1084,13 +1102,64 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
+        <v>41000</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
+        <v>41001</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.1875</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>41003</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1099,7 +1168,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 12'!E21</f>
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1122,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1149,13 +1218,64 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
+        <v>41007</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
+        <v>41008</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>41010</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
     <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1164,7 +1284,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 13'!E21</f>
-        <v>120</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1229,7 +1349,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>120</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1328,7 +1448,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>125</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="560" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="560" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="55">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,33 @@
   </si>
   <si>
     <t>Continue working on fine tuning site</t>
+  </si>
+  <si>
+    <t>Work on search field and troubleshooting site</t>
+  </si>
+  <si>
+    <t>troubleshooting site and verifying rubric</t>
+  </si>
+  <si>
+    <t>fix aspects of live site</t>
+  </si>
+  <si>
+    <t>work on details of site</t>
+  </si>
+  <si>
+    <t>work on last details of site hash, search, database script</t>
+  </si>
+  <si>
+    <t>work through site to check functionality</t>
+  </si>
+  <si>
+    <t>work on CSS responsiveness</t>
+  </si>
+  <si>
+    <t>work on graphic aspects of site fix live views</t>
+  </si>
+  <si>
+    <t>finish fixing hash and graphics of site</t>
   </si>
 </sst>
 </file>
@@ -280,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -309,6 +336,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,7 +677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A7" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1191,7 +1219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1307,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1334,13 +1362,169 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20">
+        <v>41015</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.1875</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
+        <v>41016</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>41019</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
+        <v>41019</v>
+      </c>
+      <c r="B5" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
+        <v>41021</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
+        <v>41022</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
+        <v>41023</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
+        <v>41024</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
+        <v>41026</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+    </row>
     <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1349,7 +1533,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>146</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1372,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A16" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
